--- a/app/Plantillas/Validados/Copia de PID_largo 2015 - 2025.xlsx
+++ b/app/Plantillas/Validados/Copia de PID_largo 2015 - 2025.xlsx
@@ -63925,13 +63925,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7580FB84-716A-4E91-998C-7B0FBD452E22}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48F7016B-AE79-4DB6-A754-A8057F6900CB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEBEC79A-E8E7-480E-88D8-F6FE87129A6D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E563BDC4-9824-4402-B932-AB31EC582136}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D6D9B1-E9A3-45AD-B9B9-44ECD05DD199}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88BEA998-8B30-4A87-849F-5ED8321C8C3B}"/>
 </file>